--- a/pandas库/005.09.xlsx
+++ b/pandas库/005.09.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="10740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1130,7 +1130,7 @@
         <v>41670</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>45691</v>
+        <v>45693</v>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>35941.9812962963</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>45691.8895947518</v>
+        <v>45693.84550987554</v>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
